--- a/data/variety_data.xlsx
+++ b/data/variety_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>grade_score</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>b59zxp2886fbojd</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>eu0yznpmlzwwof6</t>
@@ -769,8 +766,8 @@
       <c r="E2" t="n">
         <v>82</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -799,7 +796,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>5.34011</v>
@@ -813,8 +810,8 @@
       <c r="E3" t="n">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
+      <c r="F3" t="n">
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -843,7 +840,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
         <v>4.98832</v>
@@ -854,9 +851,11 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s">
-        <v>14</v>
+      <c r="E4" t="n">
+        <v>57</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -885,7 +884,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>5.72504</v>
@@ -899,8 +898,8 @@
       <c r="E5" t="n">
         <v>83</v>
       </c>
-      <c r="F5" t="s">
-        <v>14</v>
+      <c r="F5" t="n">
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -929,7 +928,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
         <v>6.22144</v>
@@ -943,8 +942,8 @@
       <c r="E6" t="n">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
-        <v>14</v>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -973,7 +972,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>6.86229</v>
@@ -987,8 +986,8 @@
       <c r="E7" t="n">
         <v>35</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1017,7 +1016,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>8.7178</v>
@@ -1031,8 +1030,8 @@
       <c r="E8" t="n">
         <v>70</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1061,7 +1060,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
         <v>4.57239</v>
@@ -1072,9 +1071,11 @@
       <c r="D9" t="n">
         <v>10</v>
       </c>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s">
-        <v>14</v>
+      <c r="E9" t="n">
+        <v>57</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1103,7 +1104,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>7.16563</v>
@@ -1117,8 +1118,8 @@
       <c r="E10" t="n">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1147,7 +1148,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>6.26301</v>
@@ -1161,8 +1162,8 @@
       <c r="E11" t="n">
         <v>69</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1191,7 +1192,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="n">
         <v>7.31349</v>
@@ -1205,8 +1206,8 @@
       <c r="E12" t="n">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1235,7 +1236,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="n">
         <v>6.22958</v>
@@ -1246,9 +1247,11 @@
       <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s">
-        <v>14</v>
+      <c r="E13" t="n">
+        <v>57</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="n">
         <v>5.95047</v>
@@ -1288,9 +1291,11 @@
       <c r="D14" t="n">
         <v>19</v>
       </c>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s">
-        <v>14</v>
+      <c r="E14" t="n">
+        <v>57</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1319,7 +1324,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="n">
         <v>6.86737</v>
@@ -1330,9 +1335,11 @@
       <c r="D15" t="n">
         <v>67</v>
       </c>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s">
-        <v>14</v>
+      <c r="E15" t="n">
+        <v>57</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1361,7 +1368,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
         <v>6.26188</v>
@@ -1375,8 +1382,8 @@
       <c r="E16" t="n">
         <v>73</v>
       </c>
-      <c r="F16" t="s">
-        <v>14</v>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1405,7 +1412,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
         <v>6.40029</v>
@@ -1419,8 +1426,8 @@
       <c r="E17" t="n">
         <v>49</v>
       </c>
-      <c r="F17" t="s">
-        <v>14</v>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1449,7 +1456,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="n">
         <v>7.0626</v>
@@ -1463,8 +1470,8 @@
       <c r="E18" t="n">
         <v>46</v>
       </c>
-      <c r="F18" t="s">
-        <v>14</v>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1493,7 +1500,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="n">
         <v>5.44143</v>
@@ -1507,8 +1514,8 @@
       <c r="E19" t="n">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
-        <v>14</v>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1537,7 +1544,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="n">
         <v>5.76442</v>
@@ -1551,8 +1558,8 @@
       <c r="E20" t="n">
         <v>32</v>
       </c>
-      <c r="F20" t="s">
-        <v>14</v>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1581,7 +1588,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="n">
         <v>7.28095</v>
@@ -1595,8 +1602,8 @@
       <c r="E21" t="n">
         <v>78</v>
       </c>
-      <c r="F21" t="s">
-        <v>14</v>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1625,7 +1632,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="n">
         <v>6.57306</v>
@@ -1639,8 +1646,8 @@
       <c r="E22" t="n">
         <v>45</v>
       </c>
-      <c r="F22" t="s">
-        <v>14</v>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1669,7 +1676,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="n">
         <v>6.80628</v>
@@ -1683,8 +1690,8 @@
       <c r="E23" t="n">
         <v>39</v>
       </c>
-      <c r="F23" t="s">
-        <v>14</v>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1713,7 +1720,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="n">
         <v>6.32965</v>
@@ -1727,8 +1734,8 @@
       <c r="E24" t="n">
         <v>65</v>
       </c>
-      <c r="F24" t="s">
-        <v>14</v>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1757,7 +1764,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="n">
         <v>7.69166</v>
@@ -1771,8 +1778,8 @@
       <c r="E25" t="n">
         <v>72</v>
       </c>
-      <c r="F25" t="s">
-        <v>14</v>
+      <c r="F25" t="n">
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1801,7 +1808,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="n">
         <v>7.19155</v>
@@ -1815,8 +1822,8 @@
       <c r="E26" t="n">
         <v>42</v>
       </c>
-      <c r="F26" t="s">
-        <v>14</v>
+      <c r="F26" t="n">
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1845,7 +1852,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="n">
         <v>7.19249</v>
@@ -1859,8 +1866,8 @@
       <c r="E27" t="n">
         <v>74</v>
       </c>
-      <c r="F27" t="s">
-        <v>14</v>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1889,7 +1896,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="n">
         <v>6.41674</v>
@@ -1903,8 +1910,8 @@
       <c r="E28" t="n">
         <v>72</v>
       </c>
-      <c r="F28" t="s">
-        <v>14</v>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1933,7 +1940,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" t="n">
         <v>6.17115</v>
@@ -1947,8 +1954,8 @@
       <c r="E29" t="n">
         <v>43</v>
       </c>
-      <c r="F29" t="s">
-        <v>14</v>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1977,7 +1984,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" t="n">
         <v>6.17663</v>
@@ -1991,8 +1998,8 @@
       <c r="E30" t="n">
         <v>30</v>
       </c>
-      <c r="F30" t="s">
-        <v>14</v>
+      <c r="F30" t="n">
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2021,7 +2028,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" t="n">
         <v>6.01618</v>
@@ -2035,8 +2042,8 @@
       <c r="E31" t="n">
         <v>44</v>
       </c>
-      <c r="F31" t="s">
-        <v>14</v>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2065,7 +2072,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" t="n">
         <v>8.06917</v>
@@ -2079,8 +2086,8 @@
       <c r="E32" t="n">
         <v>39</v>
       </c>
-      <c r="F32" t="s">
-        <v>14</v>
+      <c r="F32" t="n">
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2109,7 +2116,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" t="n">
         <v>6.27935</v>
@@ -2123,8 +2130,8 @@
       <c r="E33" t="n">
         <v>61</v>
       </c>
-      <c r="F33" t="s">
-        <v>14</v>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2153,7 +2160,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="n">
         <v>6.43455</v>
@@ -2167,8 +2174,8 @@
       <c r="E34" t="n">
         <v>64</v>
       </c>
-      <c r="F34" t="s">
-        <v>14</v>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2197,7 +2204,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="n">
         <v>6.15713</v>
@@ -2211,8 +2218,8 @@
       <c r="E35" t="n">
         <v>90</v>
       </c>
-      <c r="F35" t="s">
-        <v>14</v>
+      <c r="F35" t="n">
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2241,7 +2248,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" t="n">
         <v>6.49334</v>
@@ -2252,9 +2259,11 @@
       <c r="D36" t="n">
         <v>6</v>
       </c>
-      <c r="E36" t="s"/>
-      <c r="F36" t="s">
-        <v>14</v>
+      <c r="E36" t="n">
+        <v>57</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2283,7 +2292,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" t="n">
         <v>7.4686</v>
@@ -2297,8 +2306,8 @@
       <c r="E37" t="n">
         <v>57</v>
       </c>
-      <c r="F37" t="s">
-        <v>14</v>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2327,7 +2336,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="n">
         <v>7.6</v>
@@ -2341,8 +2350,8 @@
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="s">
-        <v>14</v>
+      <c r="F38" t="n">
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2371,7 +2380,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" t="n">
         <v>7.28857</v>
@@ -2385,8 +2394,8 @@
       <c r="E39" t="n">
         <v>59</v>
       </c>
-      <c r="F39" t="s">
-        <v>14</v>
+      <c r="F39" t="n">
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2415,7 +2424,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="n">
         <v>7.18176</v>
@@ -2429,8 +2438,8 @@
       <c r="E40" t="n">
         <v>63</v>
       </c>
-      <c r="F40" t="s">
-        <v>14</v>
+      <c r="F40" t="n">
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -2459,7 +2468,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" t="n">
         <v>6.92291</v>
@@ -2473,8 +2482,8 @@
       <c r="E41" t="n">
         <v>62</v>
       </c>
-      <c r="F41" t="s">
-        <v>14</v>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2503,7 +2512,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" t="n">
         <v>5.55867</v>
@@ -2517,8 +2526,8 @@
       <c r="E42" t="n">
         <v>67</v>
       </c>
-      <c r="F42" t="s">
-        <v>14</v>
+      <c r="F42" t="n">
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2547,7 +2556,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="n">
         <v>6.41307</v>
@@ -2561,8 +2570,8 @@
       <c r="E43" t="n">
         <v>39</v>
       </c>
-      <c r="F43" t="s">
-        <v>14</v>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2591,7 +2600,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" t="n">
         <v>6.34863</v>
@@ -2605,8 +2614,8 @@
       <c r="E44" t="n">
         <v>40</v>
       </c>
-      <c r="F44" t="s">
-        <v>14</v>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2635,7 +2644,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" t="n">
         <v>6.05891</v>
@@ -2649,8 +2658,8 @@
       <c r="E45" t="n">
         <v>59</v>
       </c>
-      <c r="F45" t="s">
-        <v>14</v>
+      <c r="F45" t="n">
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2679,7 +2688,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" t="n">
         <v>6.45739</v>
@@ -2693,8 +2702,8 @@
       <c r="E46" t="n">
         <v>88</v>
       </c>
-      <c r="F46" t="s">
-        <v>14</v>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2723,7 +2732,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" t="n">
         <v>6.51644</v>
@@ -2734,9 +2743,11 @@
       <c r="D47" t="n">
         <v>28</v>
       </c>
-      <c r="E47" t="s"/>
-      <c r="F47" t="s">
-        <v>14</v>
+      <c r="E47" t="n">
+        <v>57</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2765,7 +2776,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" t="n">
         <v>5.58255</v>
@@ -2779,8 +2790,8 @@
       <c r="E48" t="n">
         <v>59</v>
       </c>
-      <c r="F48" t="s">
-        <v>14</v>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2809,7 +2820,7 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" t="n">
         <v>5.65304</v>
@@ -2820,9 +2831,11 @@
       <c r="D49" t="n">
         <v>12</v>
       </c>
-      <c r="E49" t="s"/>
-      <c r="F49" t="s">
-        <v>14</v>
+      <c r="E49" t="n">
+        <v>57</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2851,7 +2864,7 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" t="n">
         <v>5.95147</v>
@@ -2865,8 +2878,8 @@
       <c r="E50" t="n">
         <v>43</v>
       </c>
-      <c r="F50" t="s">
-        <v>14</v>
+      <c r="F50" t="n">
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2895,7 +2908,7 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" t="n">
         <v>7.84519</v>
@@ -2906,9 +2919,11 @@
       <c r="D51" t="n">
         <v>4</v>
       </c>
-      <c r="E51" t="s"/>
-      <c r="F51" t="s">
-        <v>14</v>
+      <c r="E51" t="n">
+        <v>57</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2937,7 +2952,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" t="n">
         <v>7.42109</v>
@@ -2948,9 +2963,11 @@
       <c r="D52" t="n">
         <v>10</v>
       </c>
-      <c r="E52" t="s"/>
-      <c r="F52" t="s">
-        <v>14</v>
+      <c r="E52" t="n">
+        <v>57</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2979,7 +2996,7 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" t="n">
         <v>7.45973</v>
@@ -2990,9 +3007,11 @@
       <c r="D53" t="n">
         <v>1</v>
       </c>
-      <c r="E53" t="s"/>
-      <c r="F53" t="s">
-        <v>14</v>
+      <c r="E53" t="n">
+        <v>57</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -3021,7 +3040,7 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" t="n">
         <v>6.22875</v>
@@ -3035,8 +3054,8 @@
       <c r="E54" t="n">
         <v>59</v>
       </c>
-      <c r="F54" t="s">
-        <v>14</v>
+      <c r="F54" t="n">
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3065,7 +3084,7 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" t="n">
         <v>5.75536</v>
@@ -3079,8 +3098,8 @@
       <c r="E55" t="n">
         <v>95</v>
       </c>
-      <c r="F55" t="s">
-        <v>14</v>
+      <c r="F55" t="n">
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3109,7 +3128,7 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" t="n">
         <v>7.56923</v>
@@ -3120,9 +3139,11 @@
       <c r="D56" t="n">
         <v>334</v>
       </c>
-      <c r="E56" t="s"/>
-      <c r="F56" t="s">
-        <v>14</v>
+      <c r="E56" t="n">
+        <v>57</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3151,7 +3172,7 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" t="n">
         <v>6.51859</v>
@@ -3165,8 +3186,8 @@
       <c r="E57" t="n">
         <v>51</v>
       </c>
-      <c r="F57" t="s">
-        <v>14</v>
+      <c r="F57" t="n">
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3195,7 +3216,7 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" t="n">
         <v>6.90689</v>
@@ -3209,8 +3230,8 @@
       <c r="E58" t="n">
         <v>45</v>
       </c>
-      <c r="F58" t="s">
-        <v>14</v>
+      <c r="F58" t="n">
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3239,7 +3260,7 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" t="n">
         <v>6.7512</v>
@@ -3253,8 +3274,8 @@
       <c r="E59" t="n">
         <v>45</v>
       </c>
-      <c r="F59" t="s">
-        <v>14</v>
+      <c r="F59" t="n">
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -3283,7 +3304,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" t="n">
         <v>6.64492</v>
@@ -3297,8 +3318,8 @@
       <c r="E60" t="n">
         <v>56</v>
       </c>
-      <c r="F60" t="s">
-        <v>14</v>
+      <c r="F60" t="n">
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3327,7 +3348,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" t="n">
         <v>6.99206</v>
@@ -3341,8 +3362,8 @@
       <c r="E61" t="n">
         <v>74</v>
       </c>
-      <c r="F61" t="s">
-        <v>14</v>
+      <c r="F61" t="n">
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3371,7 +3392,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" t="n">
         <v>6.40684</v>
@@ -3385,8 +3406,8 @@
       <c r="E62" t="n">
         <v>58</v>
       </c>
-      <c r="F62" t="s">
-        <v>14</v>
+      <c r="F62" t="n">
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3415,7 +3436,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" t="n">
         <v>7.16925</v>
@@ -3429,8 +3450,8 @@
       <c r="E63" t="n">
         <v>56</v>
       </c>
-      <c r="F63" t="s">
-        <v>14</v>
+      <c r="F63" t="n">
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3459,7 +3480,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" t="n">
         <v>7.30106</v>
@@ -3470,9 +3491,11 @@
       <c r="D64" t="n">
         <v>63</v>
       </c>
-      <c r="E64" t="s"/>
-      <c r="F64" t="s">
-        <v>14</v>
+      <c r="E64" t="n">
+        <v>57</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3501,7 +3524,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" t="n">
         <v>6.86826</v>
@@ -3515,8 +3538,8 @@
       <c r="E65" t="n">
         <v>42</v>
       </c>
-      <c r="F65" t="s">
-        <v>14</v>
+      <c r="F65" t="n">
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3545,7 +3568,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" t="n">
         <v>6.205</v>
@@ -3559,8 +3582,8 @@
       <c r="E66" t="n">
         <v>97</v>
       </c>
-      <c r="F66" t="s">
-        <v>14</v>
+      <c r="F66" t="n">
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3589,7 +3612,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" t="n">
         <v>6.67305</v>
@@ -3600,9 +3623,11 @@
       <c r="D67" t="n">
         <v>38</v>
       </c>
-      <c r="E67" t="s"/>
-      <c r="F67" t="s">
-        <v>14</v>
+      <c r="E67" t="n">
+        <v>57</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3631,7 +3656,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
         <v>7.70914</v>
@@ -3645,8 +3670,8 @@
       <c r="E68" t="n">
         <v>43</v>
       </c>
-      <c r="F68" t="s">
-        <v>14</v>
+      <c r="F68" t="n">
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3675,7 +3700,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
         <v>7.59214</v>
@@ -3686,9 +3711,11 @@
       <c r="D69" t="n">
         <v>6</v>
       </c>
-      <c r="E69" t="s"/>
-      <c r="F69" t="s">
-        <v>14</v>
+      <c r="E69" t="n">
+        <v>57</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3717,7 +3744,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" t="n">
         <v>6.84209</v>
@@ -3731,8 +3758,8 @@
       <c r="E70" t="n">
         <v>54</v>
       </c>
-      <c r="F70" t="s">
-        <v>14</v>
+      <c r="F70" t="n">
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3761,7 +3788,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" t="n">
         <v>6.22309</v>
@@ -3775,8 +3802,8 @@
       <c r="E71" t="n">
         <v>44</v>
       </c>
-      <c r="F71" t="s">
-        <v>14</v>
+      <c r="F71" t="n">
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3805,7 +3832,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" t="n">
         <v>6.31847</v>
@@ -3816,9 +3843,11 @@
       <c r="D72" t="n">
         <v>9</v>
       </c>
-      <c r="E72" t="s"/>
-      <c r="F72" t="s">
-        <v>14</v>
+      <c r="E72" t="n">
+        <v>57</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3847,7 +3876,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" t="n">
         <v>6.30009</v>
@@ -3861,8 +3890,8 @@
       <c r="E73" t="n">
         <v>44</v>
       </c>
-      <c r="F73" t="s">
-        <v>14</v>
+      <c r="F73" t="n">
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3891,7 +3920,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" t="n">
         <v>8.11769</v>
@@ -3905,8 +3934,8 @@
       <c r="E74" t="n">
         <v>233</v>
       </c>
-      <c r="F74" t="s">
-        <v>14</v>
+      <c r="F74" t="n">
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3935,7 +3964,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" t="n">
         <v>6.72436</v>
@@ -3946,9 +3975,11 @@
       <c r="D75" t="n">
         <v>440</v>
       </c>
-      <c r="E75" t="s"/>
-      <c r="F75" t="s">
-        <v>14</v>
+      <c r="E75" t="n">
+        <v>57</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3977,7 +4008,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" t="n">
         <v>7.9338</v>
@@ -3991,8 +4022,8 @@
       <c r="E76" t="n">
         <v>59</v>
       </c>
-      <c r="F76" t="s">
-        <v>14</v>
+      <c r="F76" t="n">
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4021,7 +4052,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" t="n">
         <v>6.5088</v>
@@ -4035,8 +4066,8 @@
       <c r="E77" t="n">
         <v>69</v>
       </c>
-      <c r="F77" t="s">
-        <v>14</v>
+      <c r="F77" t="n">
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4065,7 +4096,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" t="n">
         <v>5.57206</v>
@@ -4076,9 +4107,11 @@
       <c r="D78" t="n">
         <v>19</v>
       </c>
-      <c r="E78" t="s"/>
-      <c r="F78" t="s">
-        <v>14</v>
+      <c r="E78" t="n">
+        <v>57</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4107,7 +4140,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79" t="n">
         <v>5.57232</v>
@@ -4121,8 +4154,8 @@
       <c r="E79" t="n">
         <v>46</v>
       </c>
-      <c r="F79" t="s">
-        <v>14</v>
+      <c r="F79" t="n">
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4151,7 +4184,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" t="n">
         <v>8.643330000000001</v>
@@ -4162,9 +4195,11 @@
       <c r="D80" t="n">
         <v>1</v>
       </c>
-      <c r="E80" t="s"/>
-      <c r="F80" t="s">
-        <v>14</v>
+      <c r="E80" t="n">
+        <v>57</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -4193,7 +4228,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" t="n">
         <v>7.5351</v>
@@ -4207,8 +4242,8 @@
       <c r="E81" t="n">
         <v>44</v>
       </c>
-      <c r="F81" t="s">
-        <v>14</v>
+      <c r="F81" t="n">
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -4237,7 +4272,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82" t="n">
         <v>8.59361</v>
@@ -4251,8 +4286,8 @@
       <c r="E82" t="n">
         <v>44</v>
       </c>
-      <c r="F82" t="s">
-        <v>14</v>
+      <c r="F82" t="n">
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -4281,7 +4316,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" t="n">
         <v>6.92333</v>
@@ -4295,8 +4330,8 @@
       <c r="E83" t="n">
         <v>84</v>
       </c>
-      <c r="F83" t="s">
-        <v>14</v>
+      <c r="F83" t="n">
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4325,7 +4360,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B84" t="n">
         <v>9.37618</v>
@@ -4336,9 +4371,11 @@
       <c r="D84" t="n">
         <v>9</v>
       </c>
-      <c r="E84" t="s"/>
-      <c r="F84" t="s">
-        <v>14</v>
+      <c r="E84" t="n">
+        <v>57</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -4367,7 +4404,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B85" t="n">
         <v>7.35726</v>
@@ -4381,8 +4418,8 @@
       <c r="E85" t="n">
         <v>50</v>
       </c>
-      <c r="F85" t="s">
-        <v>14</v>
+      <c r="F85" t="n">
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4411,7 +4448,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" t="n">
         <v>6.744</v>
@@ -4425,8 +4462,8 @@
       <c r="E86" t="n">
         <v>56</v>
       </c>
-      <c r="F86" t="s">
-        <v>14</v>
+      <c r="F86" t="n">
+        <v>0</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4455,7 +4492,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" t="n">
         <v>6.86456</v>
@@ -4469,8 +4506,8 @@
       <c r="E87" t="n">
         <v>70</v>
       </c>
-      <c r="F87" t="s">
-        <v>14</v>
+      <c r="F87" t="n">
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4499,7 +4536,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B88" t="n">
         <v>7.87547</v>
@@ -4510,9 +4547,11 @@
       <c r="D88" t="n">
         <v>91</v>
       </c>
-      <c r="E88" t="s"/>
-      <c r="F88" t="s">
-        <v>14</v>
+      <c r="E88" t="n">
+        <v>57</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4541,7 +4580,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" t="n">
         <v>8.21757</v>
@@ -4555,8 +4594,8 @@
       <c r="E89" t="n">
         <v>78</v>
       </c>
-      <c r="F89" t="s">
-        <v>14</v>
+      <c r="F89" t="n">
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -4585,7 +4624,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" t="n">
         <v>6.26691</v>
@@ -4596,9 +4635,11 @@
       <c r="D90" t="n">
         <v>13</v>
       </c>
-      <c r="E90" t="s"/>
-      <c r="F90" t="s">
-        <v>14</v>
+      <c r="E90" t="n">
+        <v>57</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4627,7 +4668,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B91" t="n">
         <v>8.00685</v>
@@ -4641,8 +4682,8 @@
       <c r="E91" t="n">
         <v>59</v>
       </c>
-      <c r="F91" t="s">
-        <v>14</v>
+      <c r="F91" t="n">
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4671,7 +4712,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" t="n">
         <v>6.86817</v>
@@ -4682,9 +4723,11 @@
       <c r="D92" t="n">
         <v>642</v>
       </c>
-      <c r="E92" t="s"/>
-      <c r="F92" t="s">
-        <v>14</v>
+      <c r="E92" t="n">
+        <v>57</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4713,7 +4756,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93" t="n">
         <v>4.87494</v>
@@ -4727,8 +4770,8 @@
       <c r="E93" t="n">
         <v>44</v>
       </c>
-      <c r="F93" t="s">
-        <v>14</v>
+      <c r="F93" t="n">
+        <v>0</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4757,7 +4800,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94" t="n">
         <v>6.08907</v>
@@ -4771,8 +4814,8 @@
       <c r="E94" t="n">
         <v>57</v>
       </c>
-      <c r="F94" t="s">
-        <v>14</v>
+      <c r="F94" t="n">
+        <v>0</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4801,7 +4844,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B95" t="n">
         <v>7.04094</v>
@@ -4815,8 +4858,8 @@
       <c r="E95" t="n">
         <v>71</v>
       </c>
-      <c r="F95" t="s">
-        <v>14</v>
+      <c r="F95" t="n">
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4845,7 +4888,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B96" t="n">
         <v>6.78045</v>
@@ -4859,8 +4902,8 @@
       <c r="E96" t="n">
         <v>44</v>
       </c>
-      <c r="F96" t="s">
-        <v>14</v>
+      <c r="F96" t="n">
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4889,7 +4932,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97" t="n">
         <v>6.59967</v>
@@ -4900,9 +4943,11 @@
       <c r="D97" t="n">
         <v>14</v>
       </c>
-      <c r="E97" t="s"/>
-      <c r="F97" t="s">
-        <v>14</v>
+      <c r="E97" t="n">
+        <v>57</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4931,7 +4976,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B98" t="n">
         <v>6.27418</v>
@@ -4945,8 +4990,8 @@
       <c r="E98" t="n">
         <v>103</v>
       </c>
-      <c r="F98" t="s">
-        <v>14</v>
+      <c r="F98" t="n">
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4975,7 +5020,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99" t="n">
         <v>5.37004</v>
@@ -4989,8 +5034,8 @@
       <c r="E99" t="n">
         <v>56</v>
       </c>
-      <c r="F99" t="s">
-        <v>14</v>
+      <c r="F99" t="n">
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5019,7 +5064,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" t="n">
         <v>4.79823</v>
@@ -5033,8 +5078,8 @@
       <c r="E100" t="n">
         <v>59</v>
       </c>
-      <c r="F100" t="s">
-        <v>14</v>
+      <c r="F100" t="n">
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5063,7 +5108,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B101" t="n">
         <v>6.49694</v>
@@ -5077,8 +5122,8 @@
       <c r="E101" t="n">
         <v>40</v>
       </c>
-      <c r="F101" t="s">
-        <v>14</v>
+      <c r="F101" t="n">
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
